--- a/data_year/zb/价格指数/城市居民消费价格分类指数(上年=100)(-2015)/交通和通信类城市居民消费价格指数(上年=100).xlsx
+++ b/data_year/zb/价格指数/城市居民消费价格分类指数(上年=100)(-2015)/交通和通信类城市居民消费价格指数(上年=100).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,578 +488,222 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>99.40000000000001</v>
+      </c>
       <c r="C2" t="n">
-        <v>97.2</v>
+        <v>98.3</v>
       </c>
       <c r="D2" t="n">
-        <v>94.09999999999999</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+        <v>101.5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>102</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="G2" t="n">
+        <v>111.7</v>
+      </c>
+      <c r="H2" t="n">
+        <v>101.8</v>
+      </c>
       <c r="I2" t="n">
-        <v>90.09999999999999</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+        <v>84.3</v>
+      </c>
+      <c r="J2" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="K2" t="n">
+        <v>97.09999999999999</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>99.09999999999999</v>
+        <v>100.24660326</v>
       </c>
       <c r="C3" t="n">
-        <v>96.2</v>
+        <v>98.60880261</v>
       </c>
       <c r="D3" t="n">
-        <v>101.8</v>
+        <v>102.36505942</v>
       </c>
       <c r="E3" t="n">
-        <v>102.9</v>
+        <v>102.54976063</v>
       </c>
       <c r="F3" t="n">
-        <v>106.5</v>
+        <v>101.21069924</v>
       </c>
       <c r="G3" t="n">
-        <v>99.8</v>
+        <v>111.79303921</v>
       </c>
       <c r="H3" t="n">
-        <v>100.9</v>
+        <v>104.14216029</v>
       </c>
       <c r="I3" t="n">
-        <v>78.2</v>
+        <v>85.24771576000001</v>
       </c>
       <c r="J3" t="n">
-        <v>101.7</v>
+        <v>99.71270594000001</v>
       </c>
       <c r="K3" t="n">
-        <v>97</v>
+        <v>97.30903573000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>98</v>
+        <v>99.66435988000001</v>
       </c>
       <c r="C4" t="n">
-        <v>94.40000000000001</v>
+        <v>98.85665872</v>
       </c>
       <c r="D4" t="n">
-        <v>99.3</v>
+        <v>100.9334617</v>
       </c>
       <c r="E4" t="n">
-        <v>99.90000000000001</v>
+        <v>100.96394025</v>
       </c>
       <c r="F4" t="n">
-        <v>102.2</v>
+        <v>101.06869721</v>
       </c>
       <c r="G4" t="n">
-        <v>98.7</v>
+        <v>102.8561574</v>
       </c>
       <c r="H4" t="n">
-        <v>100.6</v>
+        <v>104.90562138</v>
       </c>
       <c r="I4" t="n">
-        <v>81.90000000000001</v>
+        <v>85.53817986</v>
       </c>
       <c r="J4" t="n">
-        <v>100.4</v>
+        <v>99.90449612</v>
       </c>
       <c r="K4" t="n">
-        <v>97.09999999999999</v>
+        <v>97.81313491</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>97.38039999999999</v>
+        <v>99.5</v>
       </c>
       <c r="C5" t="n">
-        <v>95.46510000000001</v>
+        <v>98.48334057</v>
       </c>
       <c r="D5" t="n">
-        <v>99.5736</v>
+        <v>100</v>
       </c>
       <c r="E5" t="n">
-        <v>100.2114</v>
+        <v>100.63719013</v>
       </c>
       <c r="F5" t="n">
-        <v>100.6166</v>
+        <v>100.64532701</v>
       </c>
       <c r="G5" t="n">
-        <v>108.8152</v>
+        <v>99.33041265999999</v>
       </c>
       <c r="H5" t="n">
-        <v>99.4564</v>
+        <v>104.04835272</v>
       </c>
       <c r="I5" t="n">
-        <v>79.8391</v>
+        <v>90.31418834</v>
       </c>
       <c r="J5" t="n">
-        <v>99.12739999999999</v>
+        <v>99.87681318999999</v>
       </c>
       <c r="K5" t="n">
-        <v>95.6581</v>
+        <v>98.7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>97.89709999999999</v>
+        <v>99.8</v>
       </c>
       <c r="C6" t="n">
-        <v>95.1242</v>
+        <v>99.02527635</v>
       </c>
       <c r="D6" t="n">
-        <v>100.1181</v>
+        <v>100.2</v>
       </c>
       <c r="E6" t="n">
-        <v>101.5654</v>
+        <v>101.39154746</v>
       </c>
       <c r="F6" t="n">
-        <v>101.135</v>
+        <v>101.14010394</v>
       </c>
       <c r="G6" t="n">
-        <v>108.088</v>
+        <v>98.61991757</v>
       </c>
       <c r="H6" t="n">
-        <v>101.2082</v>
+        <v>102.91375075</v>
       </c>
       <c r="I6" t="n">
-        <v>81.9504</v>
+        <v>94.97911447</v>
       </c>
       <c r="J6" t="n">
-        <v>99.5108</v>
+        <v>99.91605081</v>
       </c>
       <c r="K6" t="n">
-        <v>96.1995</v>
+        <v>99.3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>98.4152</v>
+        <v>98.36631740999999</v>
       </c>
       <c r="C7" t="n">
-        <v>96.1962</v>
+        <v>97.96899376</v>
       </c>
       <c r="D7" t="n">
-        <v>101.145</v>
+        <v>97.66145202</v>
       </c>
       <c r="E7" t="n">
-        <v>102.3601</v>
+        <v>100.18361273</v>
       </c>
       <c r="F7" t="n">
-        <v>101.8515</v>
+        <v>104.30986276</v>
       </c>
       <c r="G7" t="n">
-        <v>110.8749</v>
+        <v>84.05301161</v>
       </c>
       <c r="H7" t="n">
-        <v>102.1627</v>
+        <v>102.8271747</v>
       </c>
       <c r="I7" t="n">
-        <v>81.1403</v>
+        <v>96.40716523</v>
       </c>
       <c r="J7" t="n">
-        <v>99.651</v>
+        <v>99.8320093</v>
       </c>
       <c r="K7" t="n">
-        <v>96.2265</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2006年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>99.26892149</v>
-      </c>
-      <c r="C8" t="n">
-        <v>96.84066371999999</v>
-      </c>
-      <c r="D8" t="n">
-        <v>102.59607794</v>
-      </c>
-      <c r="E8" t="n">
-        <v>104.05126152</v>
-      </c>
-      <c r="F8" t="n">
-        <v>104.12229473</v>
-      </c>
-      <c r="G8" t="n">
-        <v>112.97276215</v>
-      </c>
-      <c r="H8" t="n">
-        <v>102.5601744</v>
-      </c>
-      <c r="I8" t="n">
-        <v>79.62349048</v>
-      </c>
-      <c r="J8" t="n">
-        <v>99.85042086999999</v>
-      </c>
-      <c r="K8" t="n">
-        <v>96.07453579</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>98.37287979</v>
-      </c>
-      <c r="C9" t="n">
-        <v>96.8581712</v>
-      </c>
-      <c r="D9" t="n">
-        <v>100.1840249</v>
-      </c>
-      <c r="E9" t="n">
-        <v>101.99587046</v>
-      </c>
-      <c r="F9" t="n">
-        <v>100.69599055</v>
-      </c>
-      <c r="G9" t="n">
-        <v>103.30591557</v>
-      </c>
-      <c r="H9" t="n">
-        <v>102.35494068</v>
-      </c>
-      <c r="I9" t="n">
-        <v>78.62649232</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100.09646845</v>
-      </c>
-      <c r="K9" t="n">
-        <v>96.52713873</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>98.41366628</v>
-      </c>
-      <c r="C10" t="n">
-        <v>96.98515888999999</v>
-      </c>
-      <c r="D10" t="n">
-        <v>101.12850338</v>
-      </c>
-      <c r="E10" t="n">
-        <v>102.94182615</v>
-      </c>
-      <c r="F10" t="n">
-        <v>99.83331893</v>
-      </c>
-      <c r="G10" t="n">
-        <v>113.6193402</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100.58123859</v>
-      </c>
-      <c r="I10" t="n">
-        <v>78.44999701</v>
-      </c>
-      <c r="J10" t="n">
-        <v>98.86861814</v>
-      </c>
-      <c r="K10" t="n">
-        <v>95.56274242000001</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>97.30634818999999</v>
-      </c>
-      <c r="C11" t="n">
-        <v>97.19844134</v>
-      </c>
-      <c r="D11" t="n">
-        <v>98.33902204</v>
-      </c>
-      <c r="E11" t="n">
-        <v>100.19679018</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100.38136804</v>
-      </c>
-      <c r="G11" t="n">
-        <v>92.87569521</v>
-      </c>
-      <c r="H11" t="n">
-        <v>101.27836038</v>
-      </c>
-      <c r="I11" t="n">
-        <v>79.09014805</v>
-      </c>
-      <c r="J11" t="n">
-        <v>99.54551332</v>
-      </c>
-      <c r="K11" t="n">
-        <v>96.18432688999999</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="C12" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="D12" t="n">
-        <v>101.5</v>
-      </c>
-      <c r="E12" t="n">
-        <v>102</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="G12" t="n">
-        <v>111.7</v>
-      </c>
-      <c r="H12" t="n">
-        <v>101.8</v>
-      </c>
-      <c r="I12" t="n">
-        <v>84.3</v>
-      </c>
-      <c r="J12" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="K12" t="n">
-        <v>97.09999999999999</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>100.24660326</v>
-      </c>
-      <c r="C13" t="n">
-        <v>98.60880261</v>
-      </c>
-      <c r="D13" t="n">
-        <v>102.36505942</v>
-      </c>
-      <c r="E13" t="n">
-        <v>102.54976063</v>
-      </c>
-      <c r="F13" t="n">
-        <v>101.21069924</v>
-      </c>
-      <c r="G13" t="n">
-        <v>111.79303921</v>
-      </c>
-      <c r="H13" t="n">
-        <v>104.14216029</v>
-      </c>
-      <c r="I13" t="n">
-        <v>85.24771576000001</v>
-      </c>
-      <c r="J13" t="n">
-        <v>99.71270594000001</v>
-      </c>
-      <c r="K13" t="n">
-        <v>97.30903573000001</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>99.66435988000001</v>
-      </c>
-      <c r="C14" t="n">
-        <v>98.85665872</v>
-      </c>
-      <c r="D14" t="n">
-        <v>100.9334617</v>
-      </c>
-      <c r="E14" t="n">
-        <v>100.96394025</v>
-      </c>
-      <c r="F14" t="n">
-        <v>101.06869721</v>
-      </c>
-      <c r="G14" t="n">
-        <v>102.8561574</v>
-      </c>
-      <c r="H14" t="n">
-        <v>104.90562138</v>
-      </c>
-      <c r="I14" t="n">
-        <v>85.53817986</v>
-      </c>
-      <c r="J14" t="n">
-        <v>99.90449612</v>
-      </c>
-      <c r="K14" t="n">
-        <v>97.81313491</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>99.5</v>
-      </c>
-      <c r="C15" t="n">
-        <v>98.48334057</v>
-      </c>
-      <c r="D15" t="n">
-        <v>100</v>
-      </c>
-      <c r="E15" t="n">
-        <v>100.63719013</v>
-      </c>
-      <c r="F15" t="n">
-        <v>100.64532701</v>
-      </c>
-      <c r="G15" t="n">
-        <v>99.33041265999999</v>
-      </c>
-      <c r="H15" t="n">
-        <v>104.04835272</v>
-      </c>
-      <c r="I15" t="n">
-        <v>90.31418834</v>
-      </c>
-      <c r="J15" t="n">
-        <v>99.87681318999999</v>
-      </c>
-      <c r="K15" t="n">
-        <v>98.7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="C16" t="n">
-        <v>99.02527635</v>
-      </c>
-      <c r="D16" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="E16" t="n">
-        <v>101.39154746</v>
-      </c>
-      <c r="F16" t="n">
-        <v>101.14010394</v>
-      </c>
-      <c r="G16" t="n">
-        <v>98.61991757</v>
-      </c>
-      <c r="H16" t="n">
-        <v>102.91375075</v>
-      </c>
-      <c r="I16" t="n">
-        <v>94.97911447</v>
-      </c>
-      <c r="J16" t="n">
-        <v>99.91605081</v>
-      </c>
-      <c r="K16" t="n">
-        <v>99.3</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>98.36631740999999</v>
-      </c>
-      <c r="C17" t="n">
-        <v>97.96899376</v>
-      </c>
-      <c r="D17" t="n">
-        <v>97.66145202</v>
-      </c>
-      <c r="E17" t="n">
-        <v>100.18361273</v>
-      </c>
-      <c r="F17" t="n">
-        <v>104.30986276</v>
-      </c>
-      <c r="G17" t="n">
-        <v>84.05301161</v>
-      </c>
-      <c r="H17" t="n">
-        <v>102.8271747</v>
-      </c>
-      <c r="I17" t="n">
-        <v>96.40716523</v>
-      </c>
-      <c r="J17" t="n">
-        <v>99.8320093</v>
-      </c>
-      <c r="K17" t="n">
         <v>99.45041188</v>
       </c>
     </row>
